--- a/data/pca/factorExposure/factorExposure_2013-02-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-25.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001318076603469132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002027415812665778</v>
+      </c>
+      <c r="C2">
+        <v>-0.03157511266609109</v>
+      </c>
+      <c r="D2">
+        <v>0.002875272721043132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001797962914353582</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006178403035754271</v>
+      </c>
+      <c r="C4">
+        <v>-0.08439952846722676</v>
+      </c>
+      <c r="D4">
+        <v>0.07833458169778344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0002581920972400777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01373884811259094</v>
+      </c>
+      <c r="C6">
+        <v>-0.1122729946186483</v>
+      </c>
+      <c r="D6">
+        <v>0.03047170617230247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001400902548900888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004851783170307761</v>
+      </c>
+      <c r="C7">
+        <v>-0.05677710018885981</v>
+      </c>
+      <c r="D7">
+        <v>0.03318666029890963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0003514101648048198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005752915898698211</v>
+      </c>
+      <c r="C8">
+        <v>-0.03938996507562246</v>
+      </c>
+      <c r="D8">
+        <v>0.04322595281740324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003923978132476938</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004282460038292932</v>
+      </c>
+      <c r="C9">
+        <v>-0.07074535807596417</v>
+      </c>
+      <c r="D9">
+        <v>0.0694735571743622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004564583611616718</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005447885623385763</v>
+      </c>
+      <c r="C10">
+        <v>-0.05882764551861477</v>
+      </c>
+      <c r="D10">
+        <v>-0.1995460820396205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002601730710550404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005487117653345778</v>
+      </c>
+      <c r="C11">
+        <v>-0.08089879571131263</v>
+      </c>
+      <c r="D11">
+        <v>0.05967156371971484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0005312199737656882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004097888671167574</v>
+      </c>
+      <c r="C12">
+        <v>-0.06462004755458702</v>
+      </c>
+      <c r="D12">
+        <v>0.04512724819189304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003409103716587766</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008654089292418119</v>
+      </c>
+      <c r="C13">
+        <v>-0.06664716387860707</v>
+      </c>
+      <c r="D13">
+        <v>0.06589351285596805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.00118142082700323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001600458904113349</v>
+      </c>
+      <c r="C14">
+        <v>-0.04673710410049061</v>
+      </c>
+      <c r="D14">
+        <v>0.007481354206842092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0008514315500123131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006007563061667859</v>
+      </c>
+      <c r="C15">
+        <v>-0.0430914337609233</v>
+      </c>
+      <c r="D15">
+        <v>0.02993183206278609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001129909393904406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005049035175437944</v>
+      </c>
+      <c r="C16">
+        <v>-0.06639512649720199</v>
+      </c>
+      <c r="D16">
+        <v>0.04574111862331875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>6.978690177859221e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008794712538165373</v>
+      </c>
+      <c r="C20">
+        <v>-0.06628024185519374</v>
+      </c>
+      <c r="D20">
+        <v>0.04533661658176426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005315058436876022</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009754137827637005</v>
+      </c>
+      <c r="C21">
+        <v>-0.02243545174236811</v>
+      </c>
+      <c r="D21">
+        <v>0.0335249764014476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01775411614027134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006840758556350279</v>
+      </c>
+      <c r="C22">
+        <v>-0.09443351570490234</v>
+      </c>
+      <c r="D22">
+        <v>0.09921522193253965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01806545177075237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006660871593844582</v>
+      </c>
+      <c r="C23">
+        <v>-0.09522084489189352</v>
+      </c>
+      <c r="D23">
+        <v>0.09935998281902195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001804988866565854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005117075941299981</v>
+      </c>
+      <c r="C24">
+        <v>-0.07554892869867268</v>
+      </c>
+      <c r="D24">
+        <v>0.05802268872778964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.00379594797993499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002864394853462245</v>
+      </c>
+      <c r="C25">
+        <v>-0.07803336070994989</v>
+      </c>
+      <c r="D25">
+        <v>0.06540686864140727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005595736714963768</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003536322522038453</v>
+      </c>
+      <c r="C26">
+        <v>-0.04164025751823151</v>
+      </c>
+      <c r="D26">
+        <v>0.02375521876257991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.003879490050413693</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0009883515113637816</v>
+      </c>
+      <c r="C28">
+        <v>-0.1065859439081033</v>
+      </c>
+      <c r="D28">
+        <v>-0.3188417140914805</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0009739412947723399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.0030722257522985</v>
+      </c>
+      <c r="C29">
+        <v>-0.04899308870694518</v>
+      </c>
+      <c r="D29">
+        <v>0.00264054969224644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002978952566363698</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.00904993060128513</v>
+      </c>
+      <c r="C30">
+        <v>-0.1433137741297517</v>
+      </c>
+      <c r="D30">
+        <v>0.1006854873197248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001048572619082281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006182607764692987</v>
+      </c>
+      <c r="C31">
+        <v>-0.04579553708707485</v>
+      </c>
+      <c r="D31">
+        <v>0.0320812837205047</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-1.840339002706818e-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004007301334666421</v>
+      </c>
+      <c r="C32">
+        <v>-0.04275114734504224</v>
+      </c>
+      <c r="D32">
+        <v>0.01801583918559181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003027098186136402</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008183384343302728</v>
+      </c>
+      <c r="C33">
+        <v>-0.08735947186919144</v>
+      </c>
+      <c r="D33">
+        <v>0.06887990957934073</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004209071120605467</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003929260106138914</v>
+      </c>
+      <c r="C34">
+        <v>-0.05809437790977519</v>
+      </c>
+      <c r="D34">
+        <v>0.05142649862851525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002200766975487613</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004866011135916159</v>
+      </c>
+      <c r="C35">
+        <v>-0.0395257372909922</v>
+      </c>
+      <c r="D35">
+        <v>0.01355402761703155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004080405233963316</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001341867714063604</v>
+      </c>
+      <c r="C36">
+        <v>-0.02415474134232897</v>
+      </c>
+      <c r="D36">
+        <v>0.0216560428401207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002468343436045598</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009493251012662941</v>
+      </c>
+      <c r="C38">
+        <v>-0.03455270050076199</v>
+      </c>
+      <c r="D38">
+        <v>0.01726764145168072</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01202043760119778</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0007839277263601295</v>
+      </c>
+      <c r="C39">
+        <v>-0.1172370801371279</v>
+      </c>
+      <c r="D39">
+        <v>0.07173331484716773</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.00891674674450081</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002160915510716088</v>
+      </c>
+      <c r="C40">
+        <v>-0.08803615109681713</v>
+      </c>
+      <c r="D40">
+        <v>0.01491474889521516</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0003051663466299566</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.00726785991161345</v>
+      </c>
+      <c r="C41">
+        <v>-0.03845432883936353</v>
+      </c>
+      <c r="D41">
+        <v>0.03441584446029383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002897986857644328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003665770492155581</v>
+      </c>
+      <c r="C43">
+        <v>-0.052211553585439</v>
+      </c>
+      <c r="D43">
+        <v>0.02297756942035386</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002831673366318388</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003124891045482351</v>
+      </c>
+      <c r="C44">
+        <v>-0.1110482550988099</v>
+      </c>
+      <c r="D44">
+        <v>0.06881816677078269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001418108957507218</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002288517335680462</v>
+      </c>
+      <c r="C46">
+        <v>-0.0339254443662328</v>
+      </c>
+      <c r="D46">
+        <v>0.03088246227831308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0003708790621664077</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.00266873278705228</v>
+      </c>
+      <c r="C47">
+        <v>-0.03722406746256385</v>
+      </c>
+      <c r="D47">
+        <v>0.02596945580931837</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003697644781417946</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006442417993214781</v>
+      </c>
+      <c r="C48">
+        <v>-0.02961467251875446</v>
+      </c>
+      <c r="D48">
+        <v>0.03025712584911502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01218400201692378</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01502707973216245</v>
+      </c>
+      <c r="C49">
+        <v>-0.1834335736693015</v>
+      </c>
+      <c r="D49">
+        <v>0.01273731748245569</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006505850813164798</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003569730914676874</v>
+      </c>
+      <c r="C50">
+        <v>-0.04401289326534075</v>
+      </c>
+      <c r="D50">
+        <v>0.03513827282437132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007534317389943569</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004452027728437551</v>
+      </c>
+      <c r="C51">
+        <v>-0.02670778254404328</v>
+      </c>
+      <c r="D51">
+        <v>0.01947678491780622</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0009561976212756426</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02060544984154181</v>
+      </c>
+      <c r="C53">
+        <v>-0.1691756157691972</v>
+      </c>
+      <c r="D53">
+        <v>0.03920710750594338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001642703700549683</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008632566259999275</v>
+      </c>
+      <c r="C54">
+        <v>-0.05528825233502103</v>
+      </c>
+      <c r="D54">
+        <v>0.04065233904448086</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003978699903441472</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009503686210177833</v>
+      </c>
+      <c r="C55">
+        <v>-0.109829458782458</v>
+      </c>
+      <c r="D55">
+        <v>0.04614340889608431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003251700077870847</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01999112426531207</v>
+      </c>
+      <c r="C56">
+        <v>-0.1746895124938939</v>
+      </c>
+      <c r="D56">
+        <v>0.0365256378771697</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007127380115891402</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01958255344935721</v>
+      </c>
+      <c r="C58">
+        <v>-0.1119044549320897</v>
+      </c>
+      <c r="D58">
+        <v>0.04675301795805836</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006258736180374634</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009460049343290455</v>
+      </c>
+      <c r="C59">
+        <v>-0.162370112085205</v>
+      </c>
+      <c r="D59">
+        <v>-0.3079327040244089</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003386311659008777</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02327875088904888</v>
+      </c>
+      <c r="C60">
+        <v>-0.2208121951202991</v>
+      </c>
+      <c r="D60">
+        <v>0.02687036597570159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01382732027896109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001872472219221799</v>
+      </c>
+      <c r="C61">
+        <v>-0.09555896932381348</v>
+      </c>
+      <c r="D61">
+        <v>0.05655345528294033</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1685567319614245</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1445393356047437</v>
+      </c>
+      <c r="C62">
+        <v>-0.0903801579639842</v>
+      </c>
+      <c r="D62">
+        <v>0.05183646273248111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001145421411550187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006209369627257189</v>
+      </c>
+      <c r="C63">
+        <v>-0.05625376513945361</v>
+      </c>
+      <c r="D63">
+        <v>0.02439089578692312</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0046531478957966</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01500301038570354</v>
+      </c>
+      <c r="C64">
+        <v>-0.1045192586491345</v>
+      </c>
+      <c r="D64">
+        <v>0.05955063062657782</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002523740633993935</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01755366421318466</v>
+      </c>
+      <c r="C65">
+        <v>-0.1209419694532729</v>
+      </c>
+      <c r="D65">
+        <v>0.01733873599651195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.006906455640578859</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01281333229483207</v>
+      </c>
+      <c r="C66">
+        <v>-0.1603265037021665</v>
+      </c>
+      <c r="D66">
+        <v>0.112171217258321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003861658083124023</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01562421488018481</v>
+      </c>
+      <c r="C67">
+        <v>-0.0656595586742493</v>
+      </c>
+      <c r="D67">
+        <v>0.02539998674261772</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006062438454231854</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0006349627543821134</v>
+      </c>
+      <c r="C68">
+        <v>-0.08723704101905685</v>
+      </c>
+      <c r="D68">
+        <v>-0.2535731501788845</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002668195475256261</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006053099460974805</v>
+      </c>
+      <c r="C69">
+        <v>-0.05031590362069163</v>
+      </c>
+      <c r="D69">
+        <v>0.03975939436108742</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-1.69398081859777e-07</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00179754267674376</v>
+      </c>
+      <c r="C70">
+        <v>-0.002431923547970544</v>
+      </c>
+      <c r="D70">
+        <v>0.001164835395813838</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>5.036404845618444e-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.00589520366452417</v>
+      </c>
+      <c r="C71">
+        <v>-0.09744041617362297</v>
+      </c>
+      <c r="D71">
+        <v>-0.3017005262301968</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004537917058625579</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01574533394464473</v>
+      </c>
+      <c r="C72">
+        <v>-0.1527258011590883</v>
+      </c>
+      <c r="D72">
+        <v>0.02106792445589411</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01156060343360512</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02950752472324044</v>
+      </c>
+      <c r="C73">
+        <v>-0.2754939945271555</v>
+      </c>
+      <c r="D73">
+        <v>0.0482992822381421</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004512274300359343</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001724305033429409</v>
+      </c>
+      <c r="C74">
+        <v>-0.1052149259141575</v>
+      </c>
+      <c r="D74">
+        <v>0.03841060480096185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002177344882915573</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01092993010263799</v>
+      </c>
+      <c r="C75">
+        <v>-0.1288477411040399</v>
+      </c>
+      <c r="D75">
+        <v>0.02332170147901562</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.00973381692054872</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02174245642377089</v>
+      </c>
+      <c r="C76">
+        <v>-0.1502615270299563</v>
+      </c>
+      <c r="D76">
+        <v>0.06732125769303278</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001038475994080701</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02343310120869956</v>
+      </c>
+      <c r="C77">
+        <v>-0.1295493132143041</v>
+      </c>
+      <c r="D77">
+        <v>0.05131305871125805</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0009750409105256639</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01444527826594862</v>
+      </c>
+      <c r="C78">
+        <v>-0.09530081525802891</v>
+      </c>
+      <c r="D78">
+        <v>0.06596531653060923</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02397229892047972</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.0375432202357182</v>
+      </c>
+      <c r="C79">
+        <v>-0.1561304186846556</v>
+      </c>
+      <c r="D79">
+        <v>0.03727092529372836</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004491103014312517</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.0105856032719396</v>
+      </c>
+      <c r="C80">
+        <v>-0.0431930511843546</v>
+      </c>
+      <c r="D80">
+        <v>0.02868539452451138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.00110269071611544</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01510120989275041</v>
+      </c>
+      <c r="C81">
+        <v>-0.1273616566130681</v>
+      </c>
+      <c r="D81">
+        <v>0.0429489217452141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006345155758502296</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01992194532930579</v>
+      </c>
+      <c r="C82">
+        <v>-0.1436192089207552</v>
+      </c>
+      <c r="D82">
+        <v>0.04586446066021265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009323549795757538</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009997482339141356</v>
+      </c>
+      <c r="C83">
+        <v>-0.05668754354407261</v>
+      </c>
+      <c r="D83">
+        <v>0.055826290413226</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01368930308613957</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.0116536215244843</v>
+      </c>
+      <c r="C84">
+        <v>-0.03675036665424938</v>
+      </c>
+      <c r="D84">
+        <v>-0.008326356417058435</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01489190244630335</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.028086811078363</v>
+      </c>
+      <c r="C85">
+        <v>-0.1267941810831738</v>
+      </c>
+      <c r="D85">
+        <v>0.04944294561332946</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0005753085543374677</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.00546507244144497</v>
+      </c>
+      <c r="C86">
+        <v>-0.04976980170368701</v>
+      </c>
+      <c r="D86">
+        <v>0.02209630095734358</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004127106630538436</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01024119189895203</v>
+      </c>
+      <c r="C87">
+        <v>-0.1320488471911748</v>
+      </c>
+      <c r="D87">
+        <v>0.06598013586854963</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01268345436983512</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002889965444070667</v>
+      </c>
+      <c r="C88">
+        <v>-0.06771433337172063</v>
+      </c>
+      <c r="D88">
+        <v>0.01355506368787034</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01408031585646233</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001617259046700073</v>
+      </c>
+      <c r="C89">
+        <v>-0.1455300128591138</v>
+      </c>
+      <c r="D89">
+        <v>-0.3437944429724591</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002085132643673348</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006692297606261405</v>
+      </c>
+      <c r="C90">
+        <v>-0.1220099954825754</v>
+      </c>
+      <c r="D90">
+        <v>-0.326960696791618</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001605598536552861</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01047074045655548</v>
+      </c>
+      <c r="C91">
+        <v>-0.1030992200786931</v>
+      </c>
+      <c r="D91">
+        <v>0.0246944643150038</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008088707596980972</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006386463449716067</v>
+      </c>
+      <c r="C92">
+        <v>-0.1356005622355014</v>
+      </c>
+      <c r="D92">
+        <v>-0.3351517039467326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-6.128347008336384e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004675340047747888</v>
+      </c>
+      <c r="C93">
+        <v>-0.1047399375644087</v>
+      </c>
+      <c r="D93">
+        <v>-0.3111872342414156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004434202717117123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02245717967137553</v>
+      </c>
+      <c r="C94">
+        <v>-0.1505068918088738</v>
+      </c>
+      <c r="D94">
+        <v>0.05246944880990487</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004971639520990502</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01635018699715536</v>
+      </c>
+      <c r="C95">
+        <v>-0.1260044351417601</v>
+      </c>
+      <c r="D95">
+        <v>0.06602343206892873</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.00142752619758999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03538724899413834</v>
+      </c>
+      <c r="C97">
+        <v>-0.2090395208959276</v>
+      </c>
+      <c r="D97">
+        <v>-0.007558668166522225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003611888711739361</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03638615959629598</v>
+      </c>
+      <c r="C98">
+        <v>-0.2465508600218591</v>
+      </c>
+      <c r="D98">
+        <v>0.05252135002254203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9838413622628961</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9824219568940137</v>
+      </c>
+      <c r="C99">
+        <v>0.1143127269204168</v>
+      </c>
+      <c r="D99">
+        <v>-0.02847697039162099</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0008799501283316058</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003108155540970381</v>
+      </c>
+      <c r="C101">
+        <v>-0.04918137206648619</v>
+      </c>
+      <c r="D101">
+        <v>0.002709515348382822</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
